--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>时间</t>
   </si>
   <si>
     <t>下班时间</t>
-  </si>
-  <si>
-    <t>2019-08-25 星期日</t>
-  </si>
-  <si>
-    <t>2019-08-24 星期六</t>
   </si>
   <si>
     <t>2019-08-23 星期五</t>
@@ -169,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -207,6 +201,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,8 +227,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +252,54 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,46 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -288,53 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,43 +361,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,133 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +648,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,24 +709,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,173 +732,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,22 +889,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1262,7 +1256,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.35" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,434 +1268,416 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="2">
+        <v>0.364976851851852</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.685023148148148</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="28.75" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.366018518518519</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.878171296296296</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="28.75" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.364976851851852</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.685023148148148</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.365219907407407</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.902453703703704</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="28.75" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.366018518518519</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.878171296296296</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="41.75" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.376388888888889</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.877430555555556</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="28.75" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.365219907407407</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.902453703703704</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.370381944444444</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.905543981481482</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="41.75" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.376388888888889</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.877430555555556</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="7" ht="28.75" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" ht="28.75" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.370381944444444</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.905543981481482</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="28.75" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="5">
+        <v>0.365671296296296</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" ht="28.75" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.370185185185185</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.776921296296296</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" ht="28.75" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.365671296296296</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.368310185185185</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.909930555555556</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="28.75" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.370185185185185</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.776921296296296</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.369780092592593</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.929270833333333</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" ht="28.75" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.368310185185185</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.909930555555556</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.360717592592593</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.831770833333333</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" ht="28.75" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.369780092592593</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.929270833333333</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" ht="28.75" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.360717592592593</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.831770833333333</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" ht="28.75" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2">
+        <v>0.365451388888889</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.767071759259259</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" ht="28.75" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5">
+        <v>0.352141203703704</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.823148148148148</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" ht="28.75" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
-        <v>0.365451388888889</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.767071759259259</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="B18" s="2">
+        <v>0.383981481481481</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.800740740740741</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" ht="28.75" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.352141203703704</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.823148148148148</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.369328703703704</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.875601851851852</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" ht="28.75" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.383981481481481</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.800740740740741</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.363506944444444</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.826701388888889</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" ht="28.75" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.369328703703704</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.875601851851852</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" ht="28.75" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.363506944444444</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.826701388888889</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" ht="28.75" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="5">
+        <v>0.373831018518519</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.901643518518519</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" ht="28.75" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.808101851851852</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" ht="28.75" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.373831018518519</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.901643518518519</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.367083333333333</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.774780092592593</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="28.75" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.808101851851852</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.361296296296296</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.898993055555556</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="28.75" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.367083333333333</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.774780092592593</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.363738425925926</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.907407407407407</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" ht="28.75" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.361296296296296</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.898993055555556</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" ht="28.75" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.363738425925926</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.907407407407407</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" ht="28.75" spans="1:5">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" ht="28" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" ht="28.75" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" ht="28" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="B30" s="9">
         <v>0.359502314814815</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C30" s="9">
         <v>0.792939814814815</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -163,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -191,12 +191,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -204,8 +244,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,80 +312,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,30 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,56 +638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +671,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -732,153 +714,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,11 +1247,12 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="18.1517857142857" customWidth="1"/>
     <col min="3" max="3" width="12.7946428571429" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
@@ -1349,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="28.75" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1359,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" ht="28.75" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1368,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" ht="28.75" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="28.75" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="28.75" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1449,7 @@
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" ht="28.75" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1458,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" ht="28.75" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1467,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" ht="28.75" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1481,7 +1482,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" ht="28.75" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="28.75" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1545,7 +1546,7 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" ht="28.75" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1554,7 +1555,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" ht="28.75" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="28.75" spans="1:5">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="28.75" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" ht="28.75" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1655,7 +1656,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" ht="28.75" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +1665,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" ht="28" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
         <v>46</v>
       </c>
